--- a/Second revision/Vertical crustal movement calculations/Common_era.xlsx
+++ b/Second revision/Vertical crustal movement calculations/Common_era.xlsx
@@ -494,7 +494,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="A2" sqref="A2:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,16 +551,16 @@
         <v>114</v>
       </c>
       <c r="G2" s="7">
-        <v>-1.4731388528508</v>
+        <v>-1.4559999999999997</v>
       </c>
       <c r="H2" s="7">
-        <v>-0.77046377322800597</v>
+        <v>-0.74</v>
       </c>
       <c r="I2" s="4">
-        <v>-0.53767507962279582</v>
+        <v>-0.53453622677199397</v>
       </c>
       <c r="J2" s="4">
-        <v>0.30123067566002631</v>
+        <v>0.25245621544162772</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -583,16 +583,16 @@
         <v>91.5</v>
       </c>
       <c r="G3" s="8">
-        <v>-1.2131388528508</v>
+        <v>-1.196</v>
       </c>
       <c r="H3" s="8">
-        <v>-0.77046377322800597</v>
+        <v>-0.74</v>
       </c>
       <c r="I3" s="6">
-        <v>-0.14767507962279597</v>
+        <v>-0.14453622677199413</v>
       </c>
       <c r="J3" s="6">
-        <v>0.29281379741842078</v>
+        <v>0.24846356013530341</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -615,16 +615,16 @@
         <v>96.5</v>
       </c>
       <c r="G4" s="7">
-        <v>-1.1831388528508</v>
+        <v>-1.1659999999999997</v>
       </c>
       <c r="H4" s="7">
-        <v>-0.77046377322800597</v>
+        <v>-0.74</v>
       </c>
       <c r="I4" s="4">
-        <v>-0.11767507962279572</v>
+        <v>-0.11453622677199388</v>
       </c>
       <c r="J4" s="4">
-        <v>0.29281379741842078</v>
+        <v>0.24846356013530341</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -647,16 +647,16 @@
         <v>95</v>
       </c>
       <c r="G5" s="7">
-        <v>-0.89369906734565263</v>
+        <v>-0.87969906734565262</v>
       </c>
       <c r="H5" s="7">
-        <v>-0.77046377322800597</v>
+        <v>-0.74</v>
       </c>
       <c r="I5" s="4">
-        <v>-0.15823529411764692</v>
+        <v>-0.15823529411764681</v>
       </c>
       <c r="J5" s="4">
-        <v>0.21711729539259642</v>
+        <v>0.13089744350104604</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -679,16 +679,16 @@
         <v>114</v>
       </c>
       <c r="G6" s="8">
-        <v>-0.89369906734565263</v>
+        <v>-0.87969906734565262</v>
       </c>
       <c r="H6" s="8">
-        <v>-0.77046377322800597</v>
+        <v>-0.74</v>
       </c>
       <c r="I6" s="6">
-        <v>-0.15823529411764692</v>
+        <v>-0.15823529411764681</v>
       </c>
       <c r="J6" s="6">
-        <v>0.21711729539259642</v>
+        <v>0.13089744350104604</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -711,16 +711,16 @@
         <v>112.5</v>
       </c>
       <c r="G7" s="7">
-        <v>-0.9736990673456527</v>
+        <v>-0.95969906734565269</v>
       </c>
       <c r="H7" s="7">
-        <v>-0.77046377322800597</v>
+        <v>-0.74</v>
       </c>
       <c r="I7" s="4">
-        <v>-0.2382352941176471</v>
+        <v>-0.23823529411764688</v>
       </c>
       <c r="J7" s="4">
-        <v>0.21711729539259642</v>
+        <v>0.13089744350104604</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -743,16 +743,16 @@
         <v>11.5</v>
       </c>
       <c r="G8" s="8">
-        <v>-0.82369906734565279</v>
+        <v>-0.80969906734565278</v>
       </c>
       <c r="H8" s="8">
-        <v>-0.77046377322800597</v>
+        <v>-0.74</v>
       </c>
       <c r="I8" s="6">
-        <v>0.11176470588235293</v>
+        <v>0.11176470588235304</v>
       </c>
       <c r="J8" s="6">
-        <v>0.28851329251629981</v>
+        <v>0.2307252494095727</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -775,16 +775,16 @@
         <v>58</v>
       </c>
       <c r="G9" s="7">
-        <v>-0.95369906734565291</v>
+        <v>-0.93969906734565289</v>
       </c>
       <c r="H9" s="7">
-        <v>-0.77046377322800597</v>
+        <v>-0.74</v>
       </c>
       <c r="I9" s="4">
-        <v>-8.8235294117647189E-2</v>
+        <v>-8.8235294117647078E-2</v>
       </c>
       <c r="J9" s="4">
-        <v>0.28851329251629981</v>
+        <v>0.2307252494095727</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">

--- a/Second revision/Vertical crustal movement calculations/Common_era.xlsx
+++ b/Second revision/Vertical crustal movement calculations/Common_era.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20357"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15137CDD-DA36-4812-95F6-F889A6885C0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,7 +88,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -138,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -161,22 +162,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </left>
-      <right style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -200,15 +190,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -490,11 +471,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J9"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,16 +532,16 @@
         <v>114</v>
       </c>
       <c r="G2" s="7">
-        <v>-1.4559999999999997</v>
+        <v>-1.4839999999999998</v>
       </c>
       <c r="H2" s="7">
-        <v>-0.74</v>
+        <v>-0.74946377322800595</v>
       </c>
       <c r="I2" s="4">
-        <v>-0.53453622677199397</v>
+        <v>-0.53453622677199375</v>
       </c>
       <c r="J2" s="4">
-        <v>0.25245621544162772</v>
+        <v>0.25245621544162777</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -583,16 +564,16 @@
         <v>91.5</v>
       </c>
       <c r="G3" s="8">
-        <v>-1.196</v>
+        <v>-1.224</v>
       </c>
       <c r="H3" s="8">
-        <v>-0.74</v>
+        <v>-0.74946377322800595</v>
       </c>
       <c r="I3" s="6">
-        <v>-0.14453622677199413</v>
+        <v>-0.14453622677199401</v>
       </c>
       <c r="J3" s="6">
-        <v>0.24846356013530341</v>
+        <v>0.24846356013530349</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -615,16 +596,16 @@
         <v>96.5</v>
       </c>
       <c r="G4" s="7">
-        <v>-1.1659999999999997</v>
+        <v>-1.1939999999999997</v>
       </c>
       <c r="H4" s="7">
-        <v>-0.74</v>
+        <v>-0.74946377322800595</v>
       </c>
       <c r="I4" s="4">
-        <v>-0.11453622677199388</v>
+        <v>-0.11453622677199377</v>
       </c>
       <c r="J4" s="4">
-        <v>0.24846356013530341</v>
+        <v>0.24846356013530349</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -647,16 +628,16 @@
         <v>95</v>
       </c>
       <c r="G5" s="7">
-        <v>-0.87969906734565262</v>
+        <v>-0.90769906734565264</v>
       </c>
       <c r="H5" s="7">
-        <v>-0.74</v>
+        <v>-0.74946377322800595</v>
       </c>
       <c r="I5" s="4">
-        <v>-0.15823529411764681</v>
+        <v>-0.1582352941176467</v>
       </c>
       <c r="J5" s="4">
-        <v>0.13089744350104604</v>
+        <v>0.13089744350104618</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -679,16 +660,16 @@
         <v>114</v>
       </c>
       <c r="G6" s="8">
-        <v>-0.87969906734565262</v>
+        <v>-0.90769906734565264</v>
       </c>
       <c r="H6" s="8">
-        <v>-0.74</v>
+        <v>-0.74946377322800595</v>
       </c>
       <c r="I6" s="6">
-        <v>-0.15823529411764681</v>
+        <v>-0.1582352941176467</v>
       </c>
       <c r="J6" s="6">
-        <v>0.13089744350104604</v>
+        <v>0.13089744350104618</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -711,16 +692,16 @@
         <v>112.5</v>
       </c>
       <c r="G7" s="7">
-        <v>-0.95969906734565269</v>
+        <v>-0.98769906734565271</v>
       </c>
       <c r="H7" s="7">
-        <v>-0.74</v>
+        <v>-0.74946377322800595</v>
       </c>
       <c r="I7" s="4">
-        <v>-0.23823529411764688</v>
+        <v>-0.23823529411764677</v>
       </c>
       <c r="J7" s="4">
-        <v>0.13089744350104604</v>
+        <v>0.13089744350104618</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -743,16 +724,16 @@
         <v>11.5</v>
       </c>
       <c r="G8" s="8">
-        <v>-0.80969906734565278</v>
+        <v>-0.8376990673456528</v>
       </c>
       <c r="H8" s="8">
-        <v>-0.74</v>
+        <v>-0.74946377322800595</v>
       </c>
       <c r="I8" s="6">
-        <v>0.11176470588235304</v>
+        <v>0.11176470588235315</v>
       </c>
       <c r="J8" s="6">
-        <v>0.2307252494095727</v>
+        <v>0.23072524940957281</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -775,29 +756,17 @@
         <v>58</v>
       </c>
       <c r="G9" s="7">
-        <v>-0.93969906734565289</v>
+        <v>-0.96769906734565292</v>
       </c>
       <c r="H9" s="7">
-        <v>-0.74</v>
+        <v>-0.74946377322800595</v>
       </c>
       <c r="I9" s="4">
-        <v>-8.8235294117647078E-2</v>
+        <v>-8.8235294117646967E-2</v>
       </c>
       <c r="J9" s="4">
-        <v>0.2307252494095727</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
+        <v>0.23072524940957281</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
